--- a/stock_predictor_ai/data/cleaned/FANG.xlsx
+++ b/stock_predictor_ai/data/cleaned/FANG.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3189"/>
+  <dimension ref="A1:F3190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64229,6 +64229,26 @@
         <v>155692</v>
       </c>
     </row>
+    <row r="3190">
+      <c r="A3190" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B3190" t="n">
+        <v>142.8350067138672</v>
+      </c>
+      <c r="C3190" t="n">
+        <v>144</v>
+      </c>
+      <c r="D3190" t="n">
+        <v>142.2299957275391</v>
+      </c>
+      <c r="E3190" t="n">
+        <v>143.5399932861328</v>
+      </c>
+      <c r="F3190" t="n">
+        <v>79952</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/FANG.xlsx
+++ b/stock_predictor_ai/data/cleaned/FANG.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3190"/>
+  <dimension ref="A1:F3191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64249,6 +64249,26 @@
         <v>79952</v>
       </c>
     </row>
+    <row r="3191">
+      <c r="A3191" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B3191" t="n">
+        <v>137.8800048828125</v>
+      </c>
+      <c r="C3191" t="n">
+        <v>142.6600036621094</v>
+      </c>
+      <c r="D3191" t="n">
+        <v>137.8399963378906</v>
+      </c>
+      <c r="E3191" t="n">
+        <v>142.2899932861328</v>
+      </c>
+      <c r="F3191" t="n">
+        <v>2911100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/FANG.xlsx
+++ b/stock_predictor_ai/data/cleaned/FANG.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3191"/>
+  <dimension ref="A1:F3192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64269,6 +64269,26 @@
         <v>2911100</v>
       </c>
     </row>
+    <row r="3192">
+      <c r="A3192" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B3192" t="n">
+        <v>140.6799926757812</v>
+      </c>
+      <c r="C3192" t="n">
+        <v>141.6699981689453</v>
+      </c>
+      <c r="D3192" t="n">
+        <v>140.1999969482422</v>
+      </c>
+      <c r="E3192" t="n">
+        <v>141.2799987792969</v>
+      </c>
+      <c r="F3192" t="n">
+        <v>176419</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/FANG.xlsx
+++ b/stock_predictor_ai/data/cleaned/FANG.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3192"/>
+  <dimension ref="A1:F3193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64289,6 +64289,26 @@
         <v>176419</v>
       </c>
     </row>
+    <row r="3193">
+      <c r="A3193" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B3193" t="n">
+        <v>149.7299957275391</v>
+      </c>
+      <c r="C3193" t="n">
+        <v>149.8500061035156</v>
+      </c>
+      <c r="D3193" t="n">
+        <v>146.9499969482422</v>
+      </c>
+      <c r="E3193" t="n">
+        <v>148.4600067138672</v>
+      </c>
+      <c r="F3193" t="n">
+        <v>569926</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/FANG.xlsx
+++ b/stock_predictor_ai/data/cleaned/FANG.xlsx
@@ -63,7 +63,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3193"/>
+  <dimension ref="A1:F3188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64209,106 +64211,6 @@
         <v>3358900</v>
       </c>
     </row>
-    <row r="3189">
-      <c r="A3189" s="2" t="n">
-        <v>45841</v>
-      </c>
-      <c r="B3189" t="n">
-        <v>141.0599975585938</v>
-      </c>
-      <c r="C3189" t="n">
-        <v>142.2100067138672</v>
-      </c>
-      <c r="D3189" t="n">
-        <v>140.7899932861328</v>
-      </c>
-      <c r="E3189" t="n">
-        <v>141.7350006103516</v>
-      </c>
-      <c r="F3189" t="n">
-        <v>155692</v>
-      </c>
-    </row>
-    <row r="3190">
-      <c r="A3190" s="2" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B3190" t="n">
-        <v>142.8350067138672</v>
-      </c>
-      <c r="C3190" t="n">
-        <v>144</v>
-      </c>
-      <c r="D3190" t="n">
-        <v>142.2299957275391</v>
-      </c>
-      <c r="E3190" t="n">
-        <v>143.5399932861328</v>
-      </c>
-      <c r="F3190" t="n">
-        <v>79952</v>
-      </c>
-    </row>
-    <row r="3191">
-      <c r="A3191" s="2" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B3191" t="n">
-        <v>137.8800048828125</v>
-      </c>
-      <c r="C3191" t="n">
-        <v>142.6600036621094</v>
-      </c>
-      <c r="D3191" t="n">
-        <v>137.8399963378906</v>
-      </c>
-      <c r="E3191" t="n">
-        <v>142.2899932861328</v>
-      </c>
-      <c r="F3191" t="n">
-        <v>2911100</v>
-      </c>
-    </row>
-    <row r="3192">
-      <c r="A3192" s="2" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B3192" t="n">
-        <v>140.6799926757812</v>
-      </c>
-      <c r="C3192" t="n">
-        <v>141.6699981689453</v>
-      </c>
-      <c r="D3192" t="n">
-        <v>140.1999969482422</v>
-      </c>
-      <c r="E3192" t="n">
-        <v>141.2799987792969</v>
-      </c>
-      <c r="F3192" t="n">
-        <v>176419</v>
-      </c>
-    </row>
-    <row r="3193">
-      <c r="A3193" s="2" t="n">
-        <v>45902</v>
-      </c>
-      <c r="B3193" t="n">
-        <v>149.7299957275391</v>
-      </c>
-      <c r="C3193" t="n">
-        <v>149.8500061035156</v>
-      </c>
-      <c r="D3193" t="n">
-        <v>146.9499969482422</v>
-      </c>
-      <c r="E3193" t="n">
-        <v>148.4600067138672</v>
-      </c>
-      <c r="F3193" t="n">
-        <v>569926</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
